--- a/Data/g2.6.xlsx
+++ b/Data/g2.6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,12 +470,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.022988770129</v>
+        <v>2.27956351839145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,12 +488,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.240805240618223</v>
+        <v>2.486657992731841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,12 +506,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.414373118834562</v>
+        <v>1.484949447325685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.181310905412516</v>
+        <v>1.869350039154268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.838308350178998</v>
+        <v>1.972365892100205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -560,12 +560,12 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.35902277309294</v>
+        <v>3.47163056537942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.702188395186608</v>
+        <v>2.000750024871291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.173475111662705</v>
+        <v>2.468553253837003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -614,12 +614,12 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.597018415253697</v>
+        <v>1.662281500364166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -632,12 +632,12 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.538267405086962</v>
+        <v>1.558023704098608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -650,12 +650,12 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.890071561560698</v>
+        <v>1.91665325462285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -668,12 +668,12 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.059136115348167</v>
+        <v>3.178003439643948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.948929278387619</v>
+        <v>2.525275226369617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -704,12 +704,12 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.995600676818951</v>
+        <v>2.348579040852576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -722,12 +722,12 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.697811266594905</v>
+        <v>1.294869580238383</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.508312200619893</v>
+        <v>2.838939453897902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -758,12 +758,12 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.367124856815578</v>
+        <v>2.718074718074718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.197182054134224</v>
+        <v>2.499192719800382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -794,12 +794,12 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.63732116383344</v>
+        <v>2.038547906892512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -812,12 +812,12 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.812209307328322</v>
+        <v>2.26141126653656</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -830,12 +830,12 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.179236739731418</v>
+        <v>1.426673489607525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -848,12 +848,12 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.783634322502222</v>
+        <v>2.198240851848563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.222397167281771</v>
+        <v>1.854036375140777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2.577242867897941</v>
+        <v>3.386842251092613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -902,12 +902,12 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.505655690643572</v>
+        <v>1.720735615825297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -920,12 +920,12 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.7770603260854</v>
+        <v>2.190569690094637</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -938,12 +938,12 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.452554983854641</v>
+        <v>1.607351896622372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.18709137526331</v>
+        <v>1.549804689160202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -974,12 +974,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.188219524107462</v>
+        <v>1.906242457317593</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -992,12 +992,12 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.448686746531905</v>
+        <v>3.086038514281053</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.689901147259384</v>
+        <v>1.965603743439272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.611189922959654</v>
+        <v>2.012674448613381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.187533908733193</v>
+        <v>1.712337239878328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1064,12 +1064,12 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.886146997568695</v>
+        <v>2.529772581246159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1082,12 +1082,12 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.736343546497223</v>
+        <v>2.387377280100289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1100,12 +1100,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.687900405741045</v>
+        <v>2.215980496838153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.521781035902989</v>
+        <v>1.651329601608699</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1136,12 +1136,12 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.823125684967752</v>
+        <v>1.827714036564227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1154,12 +1154,12 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.032878714747713</v>
+        <v>1.18932594205514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.172824162262243</v>
+        <v>1.798894572581742</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1190,12 +1190,12 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.344109629053346</v>
+        <v>1.232855637515202</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1208,12 +1208,12 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.324683748206042</v>
+        <v>2.599292999017086</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1226,12 +1226,12 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.40406790050762</v>
+        <v>1.518537637398577</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.815137004431105</v>
+        <v>1.792264330987263</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1262,12 +1262,12 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.37636419261588</v>
+        <v>1.464982616597644</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1280,12 +1280,12 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.096357675831345</v>
+        <v>1.197247779535877</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1298,12 +1298,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.331522587845961</v>
+        <v>1.198385580489361</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1316,12 +1316,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.155729681471636</v>
+        <v>2.469636989329464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1.548818446418293</v>
+        <v>1.704359443890875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1352,12 +1352,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.767587528556415</v>
+        <v>1.624974789532233</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1370,12 +1370,12 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.364561193734823</v>
+        <v>2.206249804745929</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1388,12 +1388,12 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1.355778295981753</v>
+        <v>1.902284315911647</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1406,12 +1406,12 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.567043800141988</v>
+        <v>1.751199190621819</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1.636184993413999</v>
+        <v>1.702341584617215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1442,12 +1442,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.823109651359404</v>
+        <v>1.534800946363992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1460,12 +1460,12 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.496644080698321</v>
+        <v>1.838723811516457</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1478,12 +1478,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1.558688028264965</v>
+        <v>1.041715720904194</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.264464765393111</v>
+        <v>1.182858500461295</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1514,12 +1514,12 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1.637756922627605</v>
+        <v>1.35560943527196</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1532,12 +1532,12 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.786974860751842</v>
+        <v>2.344573057862099</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1550,12 +1550,12 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.651510648259409</v>
+        <v>1.41608069204233</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1568,12 +1568,12 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2.690510822661798</v>
+        <v>1.830666782181373</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1586,12 +1586,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.724273845511227</v>
+        <v>1.388139959383111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.256377404928085</v>
+        <v>1.105737789287738</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1622,12 +1622,12 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.686109816111243</v>
+        <v>1.342914703046207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1640,12 +1640,12 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.576639920694235</v>
+        <v>2.174173469880545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1658,12 +1658,12 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.796043424728427</v>
+        <v>1.562069681002609</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.067441899911918</v>
+        <v>1.782710486991847</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1694,12 +1694,12 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.662515818114076</v>
+        <v>1.376235977518972</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.664400695233093</v>
+        <v>1.367377935878815</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.822570765777227</v>
+        <v>1.580450965486383</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.2927722944048</v>
+        <v>1.65018371044969</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1766,12 +1766,12 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.827721572492654</v>
+        <v>1.838707640729277</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1784,12 +1784,12 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.625228596850772</v>
+        <v>2.518004632326168</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1802,12 +1802,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.720820721384777</v>
+        <v>1.572023704085504</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.533932630275862</v>
+        <v>1.275283153609351</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1838,12 +1838,12 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.916738792830424</v>
+        <v>1.651769088626799</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1856,12 +1856,12 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3.295508685157653</v>
+        <v>2.81081939704712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1874,12 +1874,12 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.703590528477239</v>
+        <v>1.665640487085381</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.810107938881976</v>
+        <v>2.713530041050617</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1910,12 +1910,12 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.869999433423699</v>
+        <v>1.73902622482806</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1928,12 +1928,12 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.275529844619641</v>
+        <v>1.267126600069477</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1946,12 +1946,12 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.017433259360685</v>
+        <v>1.700535675229772</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1964,12 +1964,12 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3.058438010653025</v>
+        <v>2.598684893174639</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.062994353224842</v>
+        <v>1.811409843432785</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2000,12 +2000,12 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.167507737101392</v>
+        <v>2.085130324057778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2018,12 +2018,12 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.592980327522667</v>
+        <v>1.676739813932897</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2036,12 +2036,12 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.724713831584873</v>
+        <v>1.67864081750555</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2054,12 +2054,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.94074901823242</v>
+        <v>1.838164144600731</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2072,12 +2072,12 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.4827678235033</v>
+        <v>2.312388579058331</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2090,12 +2090,12 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.829274278731343</v>
+        <v>1.843359020101782</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2108,12 +2108,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2.451486621481608</v>
+        <v>2.647689279737636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.839592409340767</v>
+        <v>1.735543556788343</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2144,12 +2144,12 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.548184270505508</v>
+        <v>1.547056506200332</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2162,12 +2162,12 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.791651414479249</v>
+        <v>1.933137845566006</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2.985816341086892</v>
+        <v>3.323704087118848</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2198,12 +2198,12 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.749398063925193</v>
+        <v>1.718165947423648</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2216,12 +2216,12 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.496075222864681</v>
+        <v>2.834150394982295</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2234,12 +2234,12 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.483228866289924</v>
+        <v>1.88599859796241</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2252,12 +2252,12 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.529175232942082</v>
+        <v>1.286442902395676</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2270,12 +2270,12 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.92467879371091</v>
+        <v>2.034693824302827</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.795190496831422</v>
+        <v>3.084605105727647</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2306,12 +2306,12 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2.165200184115411</v>
+        <v>2.080644725470809</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.99262706822677</v>
+        <v>2.18605229508627</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2342,12 +2342,12 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2.242549662578668</v>
+        <v>2.61516510371253</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2360,12 +2360,12 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.507403673689989</v>
+        <v>1.739469975293001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2378,12 +2378,12 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.474025983041457</v>
+        <v>1.95735349538683</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2396,12 +2396,12 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.646827587181376</v>
+        <v>2.504009653960393</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2414,12 +2414,12 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2.280192972788246</v>
+        <v>1.84492501083786</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2432,12 +2432,12 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2.395306083203627</v>
+        <v>2.472460819184825</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2450,12 +2450,12 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.805373130409237</v>
+        <v>1.855331420334648</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.66282744109743</v>
+        <v>1.561430079267445</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1.736706140406488</v>
+        <v>1.806980256437124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2504,12 +2504,12 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2.954806658933546</v>
+        <v>3.011362106539858</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2522,12 +2522,12 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.16827277936354</v>
+        <v>1.764365398657053</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.595187639034115</v>
+        <v>2.517430907512401</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2558,12 +2558,12 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1.704499593984953</v>
+        <v>2.504474641293347</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1.650368331715625</v>
+        <v>1.54225840597576</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2594,12 +2594,12 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.758239743468252</v>
+        <v>1.941145778756125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2.548142738840648</v>
+        <v>2.819105323689936</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2630,12 +2630,12 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2.823832881111418</v>
+        <v>2.18372499935639</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2648,12 +2648,12 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.609235336367118</v>
+        <v>2.009675398701652</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2666,12 +2666,12 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2.58879693809601</v>
+        <v>2.261736257182142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2684,12 +2684,12 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1.608516593973474</v>
+        <v>1.520300575673253</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2702,12 +2702,12 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.334613830132483</v>
+        <v>1.486637315331456</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2720,12 +2720,12 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.848276473405946</v>
+        <v>1.660917359115673</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2.304360917947347</v>
+        <v>2.299701632469955</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2.303844699573672</v>
+        <v>2.415799616763466</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2774,12 +2774,12 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.938766410024036</v>
+        <v>1.820819371328306</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2792,12 +2792,12 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.012524271306178</v>
+        <v>1.67705410307074</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2810,12 +2810,12 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1.622703640638808</v>
+        <v>1.751564886777807</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2828,12 +2828,12 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2.908195699609095</v>
+        <v>2.980087114676682</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2846,12 +2846,12 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2.229110196555815</v>
+        <v>2.186823882824749</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2864,12 +2864,12 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2.321904296320044</v>
+        <v>2.617391300331335</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2882,12 +2882,12 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1.508517959449273</v>
+        <v>1.719082790628175</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.633356882159138</v>
+        <v>1.664488397217599</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2918,12 +2918,12 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1.46663789571445</v>
+        <v>1.773282725006887</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2936,12 +2936,12 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2.427618707734433</v>
+        <v>2.569943897823992</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2954,12 +2954,12 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2.465878915132938</v>
+        <v>2.8479927637762</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2972,12 +2972,12 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1.635342764201899</v>
+        <v>1.623003480072331</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2990,12 +2990,12 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2.799813973274001</v>
+        <v>2.61094592243772</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3008,12 +3008,12 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2.403579523433078</v>
+        <v>1.622278588330398</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3026,12 +3026,12 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1.866950257659096</v>
+        <v>1.346032393091529</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2.315093629597486</v>
+        <v>1.864089782694982</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3062,12 +3062,12 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1.77288459658089</v>
+        <v>2.324076351451684</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3080,12 +3080,12 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2.353749134062789</v>
+        <v>2.323555716465603</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3098,12 +3098,12 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1.503182465109982</v>
+        <v>1.955353924566385</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1.67094034325213</v>
+        <v>2.029742836391957</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3134,12 +3134,12 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1.803277806279849</v>
+        <v>1.636587015189683</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3152,12 +3152,12 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2.791023483858953</v>
+        <v>2.933077365708656</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3170,12 +3170,12 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1.681404481061217</v>
+        <v>2.248181807045193</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.380918170198978</v>
+        <v>2.341769825804162</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3206,12 +3206,12 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1.276797775473037</v>
+        <v>1.521424394933396</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1.596278833101853</v>
+        <v>1.647331402707658</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3242,12 +3242,12 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1.694675309001354</v>
+        <v>1.479186017704671</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3260,12 +3260,12 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.357142259989022</v>
+        <v>2.448388698595438</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1.963879375980295</v>
+        <v>2.486976249062884</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -3296,12 +3296,12 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1.924729389908119</v>
+        <v>1.649334275372442</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -3314,12 +3314,12 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1.76197269040628</v>
+        <v>2.823768357235594</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1.951956857542774</v>
+        <v>2.424143842111441</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -3350,12 +3350,12 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1.723228864372962</v>
+        <v>1.882923334347782</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -3368,12 +3368,12 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2.015959120842135</v>
+        <v>2.334900889022499</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3386,12 +3386,12 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1.782798943720058</v>
+        <v>1.788052875170639</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -3404,12 +3404,12 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.219522129928592</v>
+        <v>2.373887118602053</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -3422,12 +3422,12 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1.619802271164329</v>
+        <v>1.516043251675552</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -3440,12 +3440,12 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1.677835108680367</v>
+        <v>1.685236416827466</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -3458,12 +3458,12 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1.576338787139594</v>
+        <v>1.818706120222627</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2.658014423016805</v>
+        <v>2.814902658981434</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3494,12 +3494,12 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1.63790831526177</v>
+        <v>1.695790082718525</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3512,12 +3512,12 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2.213875781628159</v>
+        <v>2.401288605011612</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3530,12 +3530,12 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1.561699541961571</v>
+        <v>1.287721681292117</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3548,12 +3548,12 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1.658639294058132</v>
+        <v>1.609936124780118</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3566,12 +3566,12 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1.481964512314983</v>
+        <v>1.709174451954977</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -3584,12 +3584,12 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2.198213324091963</v>
+        <v>2.377309275114619</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3602,12 +3602,12 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>2.1587962326522</v>
+        <v>1.980681749664956</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1.831566126370797</v>
+        <v>1.941196807839499</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3638,12 +3638,12 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1.778959413894216</v>
+        <v>1.777047609939765</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3656,12 +3656,12 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2.122706110433109</v>
+        <v>1.968657225670221</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3674,12 +3674,12 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2.033047677167304</v>
+        <v>1.737972303138866</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3692,12 +3692,12 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2.140221905198601</v>
+        <v>2.033207073489167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3710,12 +3710,12 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1.723337970158412</v>
+        <v>1.798052046544692</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3728,12 +3728,12 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>2.60831375282582</v>
+        <v>2.238511707743075</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3746,12 +3746,12 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1.36363459822382</v>
+        <v>1.633660822452277</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1.775411350772117</v>
+        <v>1.692190171838571</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3782,12 +3782,12 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1.811206109422415</v>
+        <v>1.58982547765587</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3800,12 +3800,12 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2.58244987100671</v>
+        <v>2.680755611778694</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3818,12 +3818,12 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1.666922352458095</v>
+        <v>1.651921776531765</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3836,12 +3836,12 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3.204083834649596</v>
+        <v>2.232817050949128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3854,12 +3854,12 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1.222013606987358</v>
+        <v>1.575060983406571</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3872,12 +3872,12 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1.783659269666942</v>
+        <v>1.672830123478558</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3890,12 +3890,12 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1.920221192865642</v>
+        <v>1.494643764323979</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2.254147612801435</v>
+        <v>2.217020590037997</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3926,12 +3926,12 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>2.514451327966066</v>
+        <v>2.177266257570078</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3944,12 +3944,12 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.985292269273704</v>
+        <v>1.847236466850893</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1.769243536092899</v>
+        <v>1.794179666832193</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3980,12 +3980,12 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2.265552296215103</v>
+        <v>2.140867358891868</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3998,12 +3998,12 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1.92288131395784</v>
+        <v>2.050441834470599</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -4016,12 +4016,12 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2.659820543585057</v>
+        <v>2.15853301363992</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -4034,12 +4034,12 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1.567055774932807</v>
+        <v>1.738082342401291</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2.364390237267243</v>
+        <v>2.630629717287714</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -4070,12 +4070,12 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1.126162314365679</v>
+        <v>1.37530145432961</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -4088,12 +4088,12 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1.889949167644986</v>
+        <v>1.790601247526734</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -4106,12 +4106,12 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1.381395151568474</v>
+        <v>1.826702255592424</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -4124,12 +4124,12 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2.718598427259119</v>
+        <v>2.604544551711273</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -4142,12 +4142,12 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1.455201867788334</v>
+        <v>1.681184049287278</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -4160,12 +4160,12 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2.495747329867013</v>
+        <v>3.231497032509516</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4178,12 +4178,12 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1.253979037102719</v>
+        <v>1.232468795591848</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1.963955481603082</v>
+        <v>1.798919733187058</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4214,12 +4214,12 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1.339709428049432</v>
+        <v>1.936650039990547</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4232,12 +4232,12 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2.429397711825829</v>
+        <v>2.273433436052047</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4250,12 +4250,12 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>2.017494145904555</v>
+        <v>2.535964233158265</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4268,12 +4268,12 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2.316938910293527</v>
+        <v>3.010833550922547</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4286,12 +4286,12 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1.99473502057107</v>
+        <v>1.784380662841208</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4304,12 +4304,12 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2.132255654840697</v>
+        <v>2.28493569457894</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4322,12 +4322,12 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1.69177357763183</v>
+        <v>1.939332920295549</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1.838501211231657</v>
+        <v>2.682577184982722</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4358,12 +4358,12 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1.554728493292037</v>
+        <v>1.580463042729988</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4376,12 +4376,12 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>2.101647363911517</v>
+        <v>2.384619263952295</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4394,12 +4394,12 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1.184797555655665</v>
+        <v>1.135797427533519</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1.81583562944715</v>
+        <v>1.906119016235578</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4430,12 +4430,12 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1.357717454083254</v>
+        <v>1.393213961739158</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4448,12 +4448,12 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2.402879422848349</v>
+        <v>2.741857954922593</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4466,12 +4466,12 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1.382811253984421</v>
+        <v>1.46765214649091</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4484,12 +4484,12 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1.917468024792098</v>
+        <v>2.517100209158792</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4502,12 +4502,12 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1.130947533888409</v>
+        <v>1.264707712515186</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4520,12 +4520,12 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1.987769152050693</v>
+        <v>1.980758506425043</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4538,12 +4538,12 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1.27302308468413</v>
+        <v>1.351171587443878</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4556,12 +4556,12 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2.188585583254864</v>
+        <v>2.45018292332202</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4574,12 +4574,12 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1.724097397849705</v>
+        <v>2.034755231774039</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4592,12 +4592,12 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1.550706433435954</v>
+        <v>2.336761957396841</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4610,12 +4610,12 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1.200246481757419</v>
+        <v>2.011801386065533</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -4628,12 +4628,12 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2.049587538366018</v>
+        <v>2.150498606389584</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4646,12 +4646,12 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1.187247584268024</v>
+        <v>1.706247894226258</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -4664,12 +4664,12 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1.478132378872485</v>
+        <v>1.854230886255815</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -4682,12 +4682,12 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1.551617945737352</v>
+        <v>1.568030292497216</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4700,12 +4700,12 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2.037460502910427</v>
+        <v>2.119628439935699</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4718,12 +4718,12 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1.454731797950744</v>
+        <v>1.194934334683075</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4736,12 +4736,12 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>2.261611289064197</v>
+        <v>1.831371384427347</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4754,12 +4754,12 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1.438231142976496</v>
+        <v>1.369333684846055</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2.463966096614827</v>
+        <v>2.423437751672251</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4790,12 +4790,12 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1.422176363656398</v>
+        <v>1.394642179910411</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4808,12 +4808,12 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1.840272562998694</v>
+        <v>1.933873316621625</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4826,12 +4826,12 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1.268410678673517</v>
+        <v>1.140623587985496</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4844,12 +4844,12 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>2.324476012652066</v>
+        <v>2.004775919625166</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1.416667702603887</v>
+        <v>1.283914695360262</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4880,12 +4880,12 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2.331910215594844</v>
+        <v>2.207310477085146</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4898,12 +4898,12 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1.780236268616311</v>
+        <v>1.738848267532301</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1.419792354940619</v>
+        <v>1.563973821081284</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4934,12 +4934,12 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1.374955098551721</v>
+        <v>1.210515437247683</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4952,12 +4952,12 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>2.108097528711902</v>
+        <v>2.067123205851634</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4970,25 +4970,349 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1.348507933937107</v>
+        <v>1.19740532501884</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Maracujá</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1.490778844276103</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
         <v>2010</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1.564893132013541</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>2.054892415051441</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1.467178054874201</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>2.280960969331264</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>1.450536225154542</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>Maracujá</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>1.48332346304489</v>
+      <c r="D259" t="n">
+        <v>2.485047065032755</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1.434344085869846</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1.856017393187005</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1.279262826961926</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>2.344363544983891</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1.428788294335373</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Maracujá</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>2.351861352778077</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Banana (cacho)</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1.795467445947326</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Goiaba</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1.431939680277456</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1.386718809525041</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Mamão</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>2.126133790446892</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1.360045370757244</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Maracujá</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1.496014341836193</v>
       </c>
     </row>
   </sheetData>
